--- a/backend/python/Sorular.xlsx
+++ b/backend/python/Sorular.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\neurograph\backend\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B96BBBA-8CFC-4D22-B00E-799C6E4CCD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E03E22-AD27-464A-A967-F10A7F051D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D54EA2FE-6A39-4574-A9CB-1C9275ABFDC2}"/>
+    <workbookView xWindow="9165" yWindow="915" windowWidth="21600" windowHeight="11295" xr2:uid="{D54EA2FE-6A39-4574-A9CB-1C9275ABFDC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,24 +41,9 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Bugünün tam tarihini gün, ay ve yıl olarak yazınız.</t>
-  </si>
-  <si>
-    <t>Bugün haftanın hangi günü olduğunu yazınız.</t>
-  </si>
-  <si>
     <t>İçinde bulunduğumuz mevsimi yazınız.</t>
   </si>
   <si>
-    <t>Şu an hangi şehirde bulunduğunuzu yazınız.</t>
-  </si>
-  <si>
-    <t>Yarın olacak tam tarihi gün/ay/yıl olarak yazınız.</t>
-  </si>
-  <si>
-    <t>Bugün haftanın kaçıncı haftasındayız? (1–52 arasında bir sayı)</t>
-  </si>
-  <si>
     <t>Bulunduğunuz ilin plaka kodunu (iki haneli) yazınız.</t>
   </si>
   <si>
@@ -69,9 +54,6 @@
   </si>
   <si>
     <t>100'den başlayarak geriye doğru 7'şer ritmik sayım yapın ve bulduğunuz ilk 5 sayıyı sırasıyla yazın.</t>
-  </si>
-  <si>
-    <t>"ÇALIŞKANLIK" kelimesini sondan başa doğru (tersten) olacak şekilde yazınız.</t>
   </si>
   <si>
     <t>Aşağıdaki harf dizisinde toplam kaç tane "A" harfi olduğunu sayıp yazınız. B F A T A S A A K L M P A Z O U A T R A S A</t>
@@ -2520,6 +2502,24 @@
   </si>
   <si>
     <t>Soru</t>
+  </si>
+  <si>
+    <t>"Dün gece geç yatan öğrenci bugün derse geç kaldı" cümlesinin anlamsal olarak tersini yazın.</t>
+  </si>
+  <si>
+    <t>Size 3 kelime söyleyeceğim: masa, elma, paraşüt. Lütfen aklınızda tutun.</t>
+  </si>
+  <si>
+    <t>Aslan ile kaplan arasındaki fark nedir?</t>
+  </si>
+  <si>
+    <t>Bir otobüse 10 kişi bindi. 3 kişi indi, 5 kişi bindi. Otobüste kaç kişi var?</t>
+  </si>
+  <si>
+    <t>Size daha önce söylediğim kelimeleri tekrar edebilir misiniz?</t>
+  </si>
+  <si>
+    <t>Bir çayı demlemek için hangi adımları sırasıyla yaparsınız?</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2630,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2949,7 +2949,7 @@
   <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3300,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3308,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3340,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3356,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3364,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3372,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3388,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3396,7 +3396,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3404,7 +3404,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3436,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3444,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3468,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3476,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3492,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3500,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3532,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +3564,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3588,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3596,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3620,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3652,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +3668,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3676,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3732,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3772,7 +3772,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3796,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3804,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3820,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +3828,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3884,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3900,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3908,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3940,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3948,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3956,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3964,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3980,7 +3980,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +3988,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,7 +4004,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4012,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4028,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4036,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -4060,7 +4060,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4068,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4092,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,7 +4100,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,7 +4108,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4116,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4132,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -4140,7 +4140,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,7 +4148,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -4156,7 +4156,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -4164,7 +4164,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,7 +4180,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -4188,7 +4188,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4204,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4220,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,7 +4228,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4236,7 +4236,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4244,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4252,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4268,7 +4268,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4276,7 +4276,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -4284,7 +4284,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -4292,7 +4292,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -4300,7 +4300,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,7 +4308,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4316,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4324,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4332,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4340,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4348,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4364,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4372,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4380,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,7 +4388,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4404,7 +4404,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,7 +4412,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4420,7 +4420,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4428,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4436,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4444,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4452,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4460,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4468,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4476,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4492,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4500,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,7 +4508,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4516,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +4532,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4540,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,7 +4548,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/backend/python/Sorular.xlsx
+++ b/backend/python/Sorular.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\neurograph\backend\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E03E22-AD27-464A-A967-F10A7F051D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD9139A-0BED-40DD-A6A6-A598BE794BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="915" windowWidth="21600" windowHeight="11295" xr2:uid="{D54EA2FE-6A39-4574-A9CB-1C9275ABFDC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D54EA2FE-6A39-4574-A9CB-1C9275ABFDC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,6 @@
     <t>En yakın banka şubesine yürüyerek tahmini kaç dakikada varırsınız?</t>
   </si>
   <si>
-    <t>100'den başlayarak geriye doğru 7'şer ritmik sayım yapın ve bulduğunuz ilk 5 sayıyı sırasıyla yazın.</t>
-  </si>
-  <si>
-    <t>Aşağıdaki harf dizisinde toplam kaç tane "A" harfi olduğunu sayıp yazınız. B F A T A S A A K L M P A Z O U A T R A S A</t>
-  </si>
-  <si>
     <t>Bir dakika içinde aklınıza gelen tüm hayvan isimlerini yazınız. (Uygulayıcı 1 dakika süre tutar.)</t>
   </si>
   <si>
@@ -2504,9 +2498,6 @@
     <t>Soru</t>
   </si>
   <si>
-    <t>"Dün gece geç yatan öğrenci bugün derse geç kaldı" cümlesinin anlamsal olarak tersini yazın.</t>
-  </si>
-  <si>
     <t>Size 3 kelime söyleyeceğim: masa, elma, paraşüt. Lütfen aklınızda tutun.</t>
   </si>
   <si>
@@ -2520,6 +2511,15 @@
   </si>
   <si>
     <t>Bir çayı demlemek için hangi adımları sırasıyla yaparsınız?</t>
+  </si>
+  <si>
+    <t>Yılın aylarını tersten ve her ikinci ayı atlayarak söyleyin.</t>
+  </si>
+  <si>
+    <t>100'den başlayarak geriye doğru 7'şer sayın ve ilk 5 sayıyı sırasıyla yazın.</t>
+  </si>
+  <si>
+    <t>Aşağıdaki harf dizisinde toplam kaç tane "A" harfi var? B F A T A S A A K L M P A Z</t>
   </si>
 </sst>
 </file>
@@ -2949,7 +2949,7 @@
   <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3300,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3308,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3340,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3356,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3364,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3372,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3388,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3396,7 +3396,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3404,7 +3404,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3436,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3444,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3468,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3476,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3492,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3500,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3532,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +3564,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3588,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3596,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3620,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3652,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +3668,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3676,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3732,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3772,7 +3772,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3796,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3804,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3820,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +3828,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3884,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3900,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3908,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3940,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3948,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3956,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3964,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3980,7 +3980,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +3988,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,7 +4004,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4012,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4028,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4036,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -4060,7 +4060,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4068,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4092,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,7 +4100,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,7 +4108,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4116,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4132,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -4140,7 +4140,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,7 +4148,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -4156,7 +4156,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -4164,7 +4164,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,7 +4180,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -4188,7 +4188,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4204,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4220,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,7 +4228,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4236,7 +4236,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4244,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4252,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4268,7 +4268,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4276,7 +4276,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -4284,7 +4284,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -4292,7 +4292,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -4300,7 +4300,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,7 +4308,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4316,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4324,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4332,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4340,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4348,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4364,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4372,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4380,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,7 +4388,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4404,7 +4404,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,7 +4412,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4420,7 +4420,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4428,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4436,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4444,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4452,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4460,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4468,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4476,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4492,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4500,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,7 +4508,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4516,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +4532,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4540,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,7 +4548,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
